--- a/classfiers/chatty/decisionTree/nearmiss/chatty-decisionTree-nearmiss-results.xlsx
+++ b/classfiers/chatty/decisionTree/nearmiss/chatty-decisionTree-nearmiss-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -452,6 +452,11 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUC</t>
         </is>
       </c>
     </row>
@@ -465,10 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -486,6 +494,9 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +513,9 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +532,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -526,13 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9199999999999999</v>
       </c>
     </row>
   </sheetData>
